--- a/AAII_Financials/Quarterly/GRCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRCY_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/GRCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>GRCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,58 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -741,17 +744,20 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
@@ -761,8 +767,8 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -770,8 +776,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -779,7 +788,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -790,8 +799,8 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -799,8 +808,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,16 +886,19 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -899,8 +918,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,8 +963,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -947,7 +973,7 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -958,8 +984,8 @@
       <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -967,8 +993,11 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -987,8 +1016,8 @@
       <c r="H18" s="3">
         <v>0</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -996,8 +1025,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1041,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1029,8 +1062,8 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1038,8 +1071,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,8 +1103,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,8 +1135,11 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1105,7 +1147,7 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1116,8 +1158,8 @@
       <c r="H23" s="3">
         <v>0</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1125,8 +1167,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1199,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,8 +1231,11 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1192,7 +1243,7 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1203,8 +1254,8 @@
       <c r="H26" s="3">
         <v>0</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1212,8 +1263,11 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1221,7 +1275,7 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1232,8 +1286,8 @@
       <c r="H27" s="3">
         <v>0</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1241,8 +1295,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1423,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1377,8 +1446,8 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1386,8 +1455,11 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1395,7 +1467,7 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1406,8 +1478,8 @@
       <c r="H33" s="3">
         <v>0</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1415,8 +1487,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,8 +1519,11 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1453,7 +1531,7 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1464,8 +1542,8 @@
       <c r="H35" s="3">
         <v>0</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1473,42 +1551,48 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,17 +1618,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -1551,19 +1637,22 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1573,14 +1662,14 @@
       <c r="E42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+      <c r="H42" s="3">
+        <v>0</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1591,8 +1680,11 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1712,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,16 +1744,19 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1666,11 +1764,11 @@
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1678,17 +1776,20 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
@@ -1696,27 +1797,30 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>40600</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+      <c r="E47" s="3">
+        <v>40600</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1724,11 +1828,11 @@
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1736,8 +1840,11 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1765,8 +1872,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1904,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,16 +1968,19 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
@@ -1870,19 +1989,22 @@
         <v>200</v>
       </c>
       <c r="H52" s="3">
+        <v>200</v>
+      </c>
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,19 +2032,22 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E54" s="3">
         <v>41300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>300</v>
-      </c>
-      <c r="F54" s="3">
-        <v>200</v>
       </c>
       <c r="G54" s="3">
         <v>200</v>
@@ -1930,8 +2055,8 @@
       <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+      <c r="I54" s="3">
+        <v>200</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -1939,8 +2064,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2094,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1994,8 +2124,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2003,28 +2136,31 @@
         <v>400</v>
       </c>
       <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
       </c>
       <c r="H58" s="3">
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2032,7 +2168,7 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2041,19 +2177,22 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2061,19 +2200,19 @@
         <v>500</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+      <c r="I60" s="3">
+        <v>200</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2081,8 +2220,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,16 +2252,19 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+      <c r="E62" s="3">
+        <v>1000</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2139,8 +2284,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,8 +2380,11 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2235,19 +2392,19 @@
         <v>1500</v>
       </c>
       <c r="E66" s="3">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F66" s="3">
         <v>300</v>
       </c>
       <c r="G66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+      <c r="I66" s="3">
+        <v>200</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2255,8 +2412,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,17 +2554,20 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-100</v>
       </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
       <c r="F72" s="3">
         <v>0</v>
       </c>
@@ -2404,8 +2577,8 @@
       <c r="H72" s="3">
         <v>0</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2413,8 +2586,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,17 +2682,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E76" s="3">
         <v>39800</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
       <c r="F76" s="3">
         <v>0</v>
       </c>
@@ -2520,8 +2705,8 @@
       <c r="H76" s="3">
         <v>0</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2529,8 +2714,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,42 +2746,48 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2601,7 +2795,7 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -2612,8 +2806,8 @@
       <c r="H81" s="3">
         <v>0</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2621,8 +2815,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2831,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +2861,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,17 +3021,20 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
@@ -2828,8 +3044,8 @@
       <c r="H89" s="3">
         <v>0</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2837,8 +3053,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3069,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3099,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,17 +3163,20 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-40600</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -2957,8 +3186,8 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -2966,8 +3195,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,17 +3337,20 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>41300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -3115,8 +3360,8 @@
       <c r="H100" s="3">
         <v>0</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3124,8 +3369,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,17 +3401,20 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -3173,13 +3424,16 @@
       <c r="H102" s="3">
         <v>0</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>GRCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,66 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -747,72 +755,90 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3">
         <v>-100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +851,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,8 +885,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,22 +923,28 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -921,8 +961,14 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,8 +999,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,22 +1016,24 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -987,17 +1041,23 @@
       <c r="I17" s="3">
         <v>0</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1008,10 +1068,10 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1019,17 +1079,23 @@
       <c r="I18" s="3">
         <v>0</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,8 +1108,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1051,10 +1119,10 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1065,17 +1133,23 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1106,8 +1180,14 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1138,40 +1218,52 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1202,8 +1294,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,72 +1332,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1484,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,8 +1560,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1435,10 +1575,10 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1449,49 +1589,61 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,77 +1674,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,40 +1791,48 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>400</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1665,17 +1845,17 @@
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1683,8 +1863,14 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1715,8 +1901,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1747,72 +1939,90 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>500</v>
+      </c>
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1822,29 +2032,35 @@
       <c r="E47" s="3">
         <v>40600</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="3">
+        <v>40600</v>
+      </c>
+      <c r="G47" s="3">
+        <v>40600</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1875,8 +2091,14 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1907,8 +2129,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,40 +2205,52 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>200</v>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
       </c>
       <c r="I52" s="3">
+        <v>200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>200</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,40 +2281,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>41100</v>
+      </c>
+      <c r="F54" s="3">
         <v>41200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>41300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>300</v>
-      </c>
-      <c r="G54" s="3">
-        <v>200</v>
-      </c>
-      <c r="H54" s="3">
-        <v>200</v>
       </c>
       <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
+      <c r="J54" s="3">
+        <v>200</v>
+      </c>
+      <c r="K54" s="3">
+        <v>200</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,8 +2355,10 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2127,8 +2389,14 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2139,28 +2407,34 @@
         <v>400</v>
       </c>
       <c r="F58" s="3">
+        <v>400</v>
+      </c>
+      <c r="G58" s="3">
+        <v>400</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2171,28 +2445,34 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2203,28 +2483,34 @@
         <v>500</v>
       </c>
       <c r="F60" s="3">
+        <v>500</v>
+      </c>
+      <c r="G60" s="3">
+        <v>500</v>
+      </c>
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2255,23 +2541,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,8 +2579,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,40 +2693,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G66" s="3">
         <v>1500</v>
       </c>
-      <c r="E66" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2861,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,40 +2899,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-300</v>
+        <v>-1300</v>
       </c>
       <c r="E72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G72" s="3">
         <v>-100</v>
       </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
       <c r="H72" s="3">
         <v>0</v>
       </c>
       <c r="I72" s="3">
         <v>0</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,40 +3051,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>39700</v>
+        <v>5000</v>
       </c>
       <c r="E76" s="3">
+        <v>37800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>36800</v>
+      </c>
+      <c r="G76" s="3">
         <v>39800</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
         <v>0</v>
       </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,77 +3127,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,8 +3228,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2864,8 +3262,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,22 +3452,28 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -3047,17 +3481,23 @@
       <c r="I89" s="3">
         <v>0</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,8 +3510,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3102,8 +3544,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,8 +3620,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3175,31 +3635,37 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-40600</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3678,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3712,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,8 +3826,14 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3349,31 +3841,37 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>41300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3404,36 +3902,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRCY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,70 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -761,8 +765,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -772,15 +779,15 @@
       <c r="E9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3">
         <v>-100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
@@ -790,8 +797,8 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
@@ -799,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -810,15 +820,15 @@
       <c r="E10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
@@ -828,8 +838,8 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,25 +946,28 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -967,8 +987,11 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,16 +1044,17 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
@@ -1036,7 +1063,7 @@
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -1047,8 +1074,8 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
+      <c r="L17" s="3">
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
@@ -1056,8 +1083,11 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1065,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1074,7 +1104,7 @@
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -1085,8 +1115,8 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
+      <c r="L18" s="3">
+        <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
@@ -1094,8 +1124,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1119,14 +1153,14 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1139,8 +1173,8 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1148,8 +1182,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1186,8 +1223,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,26 +1264,29 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>300</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1253,8 +1296,8 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
+      <c r="L23" s="3">
+        <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
@@ -1262,8 +1305,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,26 +1387,29 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>300</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1367,8 +1419,8 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
+      <c r="L26" s="3">
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
@@ -1376,26 +1428,29 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>300</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1405,8 +1460,8 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+      <c r="L27" s="3">
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
@@ -1414,8 +1469,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1575,14 +1645,14 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1595,8 +1665,8 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1604,26 +1674,29 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>300</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -1633,8 +1706,8 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="L33" s="3">
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
@@ -1642,8 +1715,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,26 +1756,29 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>300</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -1709,8 +1788,8 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+      <c r="L35" s="3">
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
@@ -1718,51 +1797,57 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,26 +1879,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -1820,19 +1907,22 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1851,14 +1941,14 @@
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
+      <c r="K42" s="3">
+        <v>0</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
@@ -1869,8 +1959,11 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,8 +2041,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1954,16 +2053,16 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1971,11 +2070,11 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -1983,26 +2082,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -2010,24 +2112,27 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>40600</v>
+        <v>41000</v>
       </c>
       <c r="E47" s="3">
         <v>40600</v>
@@ -2038,8 +2143,8 @@
       <c r="G47" s="3">
         <v>40600</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>40600</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2047,11 +2152,11 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
@@ -2059,8 +2164,11 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2097,8 +2205,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2225,11 +2345,11 @@
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
@@ -2238,19 +2358,22 @@
         <v>200</v>
       </c>
       <c r="K52" s="3">
+        <v>200</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,28 +2410,31 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E54" s="3">
         <v>40900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>41100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>41200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>41300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
-      </c>
-      <c r="I54" s="3">
-        <v>200</v>
       </c>
       <c r="J54" s="3">
         <v>200</v>
@@ -2316,8 +2442,8 @@
       <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
+      <c r="L54" s="3">
+        <v>200</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,8 +2487,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2395,13 +2526,16 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E58" s="3">
         <v>400</v>
@@ -2413,33 +2547,36 @@
         <v>400</v>
       </c>
       <c r="H58" s="3">
+        <v>400</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>200</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
       </c>
       <c r="K58" s="3">
+        <v>200</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -2451,7 +2588,7 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -2460,24 +2597,27 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E60" s="3">
         <v>500</v>
@@ -2489,19 +2629,19 @@
         <v>500</v>
       </c>
       <c r="H60" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
+      <c r="L60" s="3">
+        <v>200</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
@@ -2509,8 +2649,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,26 +2690,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,37 +2854,40 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>300</v>
       </c>
       <c r="I66" s="3">
         <v>300</v>
       </c>
       <c r="J66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
+      <c r="L66" s="3">
+        <v>200</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,26 +3076,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-100</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
       <c r="I72" s="3">
         <v>0</v>
       </c>
@@ -2934,8 +3108,8 @@
       <c r="K72" s="3">
         <v>0</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
+      <c r="L72" s="3">
+        <v>0</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,26 +3240,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5000</v>
+        <v>38200</v>
       </c>
       <c r="E76" s="3">
+        <v>37900</v>
+      </c>
+      <c r="F76" s="3">
         <v>37800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>36800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>39800</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
@@ -3086,8 +3272,8 @@
       <c r="K76" s="3">
         <v>0</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
+      <c r="L76" s="3">
+        <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,69 +3322,75 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>300</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -3205,8 +3400,8 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+      <c r="L81" s="3">
+        <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
@@ -3214,8 +3409,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,8 +3672,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3470,14 +3687,14 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
@@ -3487,8 +3704,8 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
@@ -3496,8 +3713,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3641,11 +3871,11 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-40600</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -3655,8 +3885,8 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4075,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3847,11 +4093,11 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>41300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -3861,8 +4107,8 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -3870,8 +4116,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,8 +4157,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3920,14 +4172,14 @@
         <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -3937,13 +4189,16 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
   <si>
     <t>GRCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,73 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -768,8 +771,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -782,15 +788,15 @@
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3">
         <v>-100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
@@ -800,8 +806,8 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
@@ -809,8 +815,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,15 +832,15 @@
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
@@ -841,8 +850,8 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
@@ -850,8 +859,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +879,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +921,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,19 +965,22 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -969,11 +988,11 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -990,8 +1009,11 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,19 +1070,20 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
@@ -1066,7 +1092,7 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -1077,8 +1103,8 @@
       <c r="L17" s="3">
         <v>0</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
+      <c r="M17" s="3">
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
@@ -1086,8 +1112,11 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1098,7 +1127,7 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
@@ -1107,7 +1136,7 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -1118,8 +1147,8 @@
       <c r="L18" s="3">
         <v>0</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
+      <c r="M18" s="3">
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
@@ -1127,8 +1156,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1176,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1153,17 +1186,17 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1176,8 +1209,8 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1185,8 +1218,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1226,8 +1262,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,29 +1306,32 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
@@ -1299,8 +1341,8 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
+      <c r="M23" s="3">
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
@@ -1308,8 +1350,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1394,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,29 +1438,32 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -1422,8 +1473,8 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
+      <c r="M26" s="3">
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
@@ -1431,29 +1482,32 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
-      <c r="G27" s="3">
-        <v>-2200</v>
-      </c>
       <c r="H27" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -1463,8 +1517,8 @@
       <c r="L27" s="3">
         <v>0</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
+      <c r="M27" s="3">
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
@@ -1472,8 +1526,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1702,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1645,17 +1714,17 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1668,8 +1737,8 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1677,29 +1746,32 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
-      <c r="G33" s="3">
-        <v>-2200</v>
-      </c>
       <c r="H33" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -1709,8 +1781,8 @@
       <c r="L33" s="3">
         <v>0</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
+      <c r="M33" s="3">
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
@@ -1718,8 +1790,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,29 +1834,32 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1000</v>
       </c>
-      <c r="G35" s="3">
-        <v>-2200</v>
-      </c>
       <c r="H35" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -1791,8 +1869,8 @@
       <c r="L35" s="3">
         <v>0</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
+      <c r="M35" s="3">
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
@@ -1800,54 +1878,60 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,8 +1965,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1889,20 +1975,20 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -1910,39 +1996,42 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -1950,8 +2039,8 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
+      <c r="L42" s="3">
+        <v>0</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
@@ -1962,8 +2051,11 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2003,8 +2095,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,8 +2139,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2056,16 +2154,16 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2073,11 +2171,11 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
@@ -2085,29 +2183,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -2115,27 +2216,30 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E47" s="3">
         <v>41000</v>
-      </c>
-      <c r="E47" s="3">
-        <v>40600</v>
       </c>
       <c r="F47" s="3">
         <v>40600</v>
@@ -2146,8 +2250,8 @@
       <c r="H47" s="3">
         <v>40600</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>40600</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2155,11 +2259,11 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
@@ -2167,8 +2271,11 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2208,8 +2315,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2359,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2447,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2348,11 +2467,11 @@
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>200</v>
@@ -2361,19 +2480,22 @@
         <v>200</v>
       </c>
       <c r="L52" s="3">
+        <v>200</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,31 +2535,34 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E54" s="3">
         <v>41200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>40900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>41100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>41200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>41300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
-      </c>
-      <c r="J54" s="3">
-        <v>200</v>
       </c>
       <c r="K54" s="3">
         <v>200</v>
@@ -2445,8 +2570,8 @@
       <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
+      <c r="M54" s="3">
+        <v>200</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
@@ -2454,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2617,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2529,16 +2659,19 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
-      </c>
-      <c r="E58" s="3">
-        <v>400</v>
       </c>
       <c r="F58" s="3">
         <v>400</v>
@@ -2550,28 +2683,31 @@
         <v>400</v>
       </c>
       <c r="I58" s="3">
+        <v>400</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
       </c>
       <c r="L58" s="3">
+        <v>200</v>
+      </c>
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2579,7 +2715,7 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -2591,7 +2727,7 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -2600,27 +2736,30 @@
         <v>0</v>
       </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
-      </c>
-      <c r="E60" s="3">
-        <v>500</v>
       </c>
       <c r="F60" s="3">
         <v>500</v>
@@ -2632,19 +2771,19 @@
         <v>500</v>
       </c>
       <c r="I60" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J60" s="3">
         <v>300</v>
       </c>
       <c r="K60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
+      <c r="M60" s="3">
+        <v>200</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
@@ -2652,8 +2791,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,8 +2835,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2702,20 +2847,20 @@
         <v>2000</v>
       </c>
       <c r="E62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F62" s="3">
         <v>2500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +2879,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,40 +3011,43 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E66" s="3">
         <v>3000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>300</v>
       </c>
       <c r="J66" s="3">
         <v>300</v>
       </c>
       <c r="K66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
+      <c r="M66" s="3">
+        <v>200</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
@@ -2898,8 +3055,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,29 +3249,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1400</v>
       </c>
-      <c r="G72" s="3">
-        <v>-2400</v>
-      </c>
       <c r="H72" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="I72" s="3">
         <v>-100</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
       <c r="J72" s="3">
         <v>0</v>
       </c>
@@ -3111,8 +3284,8 @@
       <c r="L72" s="3">
         <v>0</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
+      <c r="M72" s="3">
+        <v>0</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
@@ -3120,8 +3293,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,29 +3425,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E76" s="3">
         <v>38200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>37900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>37800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>36800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>39800</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
         <v>0</v>
       </c>
@@ -3275,8 +3460,8 @@
       <c r="L76" s="3">
         <v>0</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
+      <c r="M76" s="3">
+        <v>0</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
@@ -3284,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,75 +3513,81 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1000</v>
       </c>
-      <c r="G81" s="3">
-        <v>-2200</v>
-      </c>
       <c r="H81" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -3403,8 +3597,8 @@
       <c r="L81" s="3">
         <v>0</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
+      <c r="M81" s="3">
+        <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
@@ -3412,8 +3606,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3626,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3668,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +3888,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3690,14 +3906,14 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -3707,8 +3923,8 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
@@ -3716,8 +3932,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3952,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3774,8 +3994,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4082,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3874,11 +4103,11 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-40600</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -3888,8 +4117,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -3897,8 +4126,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4320,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4096,11 +4341,11 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>41300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -4110,8 +4355,8 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
@@ -4119,8 +4364,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,8 +4408,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4175,14 +4426,14 @@
         <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -4192,13 +4443,16 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
   <si>
     <t>GRCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,81 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -774,8 +782,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -791,35 +805,41 @@
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3">
         <v>-100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,35 +855,41 @@
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -924,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -994,11 +1034,11 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -1012,8 +1052,14 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,8 +1123,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1083,22 +1137,22 @@
         <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -1106,17 +1160,23 @@
       <c r="M17" s="3">
         <v>0</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1127,22 +1187,22 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -1150,17 +1210,23 @@
       <c r="M18" s="3">
         <v>0</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1189,20 +1257,20 @@
         <v>500</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>500</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-2100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1212,17 +1280,23 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1265,8 +1339,14 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1309,52 +1389,64 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="E23" s="3">
         <v>300</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>300</v>
+      </c>
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1397,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
         <v>300</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>300</v>
+      </c>
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-5900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1717,20 +1857,20 @@
         <v>-500</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>2100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1740,61 +1880,73 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-5900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-5900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2042,11 +2222,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
@@ -2054,8 +2234,14 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2098,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2157,95 +2355,107 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>41800</v>
+      </c>
+      <c r="F47" s="3">
         <v>41400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>41000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>40600</v>
-      </c>
-      <c r="G47" s="3">
-        <v>40600</v>
       </c>
       <c r="H47" s="3">
         <v>40600</v>
@@ -2253,29 +2463,35 @@
       <c r="I47" s="3">
         <v>40600</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>40600</v>
+      </c>
+      <c r="K47" s="3">
+        <v>40600</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2318,8 +2534,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2362,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
       </c>
       <c r="M52" s="3">
+        <v>200</v>
+      </c>
+      <c r="N52" s="3">
+        <v>200</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>41800</v>
+      </c>
+      <c r="F54" s="3">
         <v>41500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>41200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>40900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>41100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>41200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>41300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
-      </c>
-      <c r="K54" s="3">
-        <v>200</v>
-      </c>
-      <c r="L54" s="3">
-        <v>200</v>
       </c>
       <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
+      <c r="N54" s="3">
+        <v>200</v>
+      </c>
+      <c r="O54" s="3">
+        <v>200</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2662,22 +2924,28 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
-      </c>
-      <c r="F58" s="3">
-        <v>400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>400</v>
       </c>
       <c r="H58" s="3">
         <v>400</v>
@@ -2686,42 +2954,48 @@
         <v>400</v>
       </c>
       <c r="J58" s="3">
+        <v>400</v>
+      </c>
+      <c r="K58" s="3">
+        <v>400</v>
+      </c>
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
@@ -2730,42 +3004,48 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
-      </c>
-      <c r="F60" s="3">
-        <v>500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>500</v>
       </c>
       <c r="H60" s="3">
         <v>500</v>
@@ -2774,28 +3054,34 @@
         <v>500</v>
       </c>
       <c r="J60" s="3">
+        <v>500</v>
+      </c>
+      <c r="K60" s="3">
+        <v>500</v>
+      </c>
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2838,35 +3124,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F62" s="3">
         <v>2000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2882,8 +3174,14 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-3300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-3800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-100</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
       <c r="L72" s="3">
         <v>0</v>
       </c>
       <c r="M72" s="3">
         <v>0</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3">
+        <v>0</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>38400</v>
+      </c>
+      <c r="F76" s="3">
         <v>38100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>38200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>37900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>37800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>36800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>39800</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
       <c r="L76" s="3">
         <v>0</v>
       </c>
       <c r="M76" s="3">
         <v>0</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-5900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3671,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,16 +4319,22 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -3909,16 +4343,16 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -3926,17 +4360,23 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3997,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,16 +4539,22 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4106,31 +4566,37 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-40600</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4332,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -4344,31 +4836,37 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>41300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,13 +4909,19 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
@@ -4429,30 +4933,36 @@
         <v>-100</v>
       </c>
       <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
   <si>
     <t>GRCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -811,15 +818,15 @@
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3">
         <v>-100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
@@ -829,8 +836,8 @@
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,15 +871,15 @@
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
@@ -879,8 +889,8 @@
       <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
+      <c r="P10" s="3">
+        <v>0</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1040,8 +1060,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1134,19 +1161,19 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
@@ -1155,7 +1182,7 @@
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -1166,8 +1193,8 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
+      <c r="P17" s="3">
+        <v>0</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
@@ -1175,8 +1202,11 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,19 +1214,19 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
@@ -1205,7 +1235,7 @@
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -1216,8 +1246,8 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
+      <c r="P18" s="3">
+        <v>0</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,26 +1288,26 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1286,8 +1320,8 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1404,29 +1447,29 @@
         <v>200</v>
       </c>
       <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1436,8 +1479,8 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
+      <c r="P23" s="3">
+        <v>0</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
@@ -1445,8 +1488,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1554,29 +1606,29 @@
         <v>200</v>
       </c>
       <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1586,8 +1638,8 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
+      <c r="P26" s="3">
+        <v>0</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
@@ -1595,38 +1647,41 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1636,8 +1691,8 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
+      <c r="P27" s="3">
+        <v>0</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
@@ -1645,8 +1700,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,26 +1924,26 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1886,8 +1956,8 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -1895,38 +1965,41 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -1936,8 +2009,8 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
+      <c r="P33" s="3">
+        <v>0</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
@@ -1945,8 +2018,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,38 +2071,41 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -2036,8 +2115,8 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
+      <c r="P35" s="3">
+        <v>0</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
@@ -2045,63 +2124,69 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2152,26 +2239,26 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2179,19 +2266,22 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2228,8 +2318,8 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
+      <c r="O42" s="3">
+        <v>0</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2361,16 +2460,16 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2378,11 +2477,11 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2402,26 +2504,26 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2429,36 +2531,39 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E47" s="3">
         <v>41300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>41800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>41400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>41000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>40600</v>
       </c>
       <c r="I47" s="3">
         <v>40600</v>
@@ -2469,8 +2574,8 @@
       <c r="K47" s="3">
         <v>40600</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>40600</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
@@ -2478,11 +2583,11 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2720,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>200</v>
@@ -2729,19 +2849,22 @@
         <v>200</v>
       </c>
       <c r="O52" s="3">
+        <v>200</v>
+      </c>
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,40 +2913,43 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E54" s="3">
         <v>41300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>41800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>41500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>41200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>40900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>41100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>41200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>41300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
-      </c>
-      <c r="M54" s="3">
-        <v>200</v>
       </c>
       <c r="N54" s="3">
         <v>200</v>
@@ -2831,8 +2957,8 @@
       <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
+      <c r="P54" s="3">
+        <v>200</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,25 +3061,28 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>400</v>
       </c>
       <c r="I58" s="3">
         <v>400</v>
@@ -2960,36 +3094,39 @@
         <v>400</v>
       </c>
       <c r="L58" s="3">
+        <v>400</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
-      </c>
-      <c r="M58" s="3">
-        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
       </c>
       <c r="O58" s="3">
+        <v>200</v>
+      </c>
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
-      </c>
-      <c r="E59" s="3">
-        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
@@ -2998,7 +3135,7 @@
         <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -3010,7 +3147,7 @@
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3019,36 +3156,39 @@
         <v>0</v>
       </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>500</v>
       </c>
       <c r="I60" s="3">
         <v>500</v>
@@ -3060,19 +3200,19 @@
         <v>500</v>
       </c>
       <c r="L60" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M60" s="3">
         <v>300</v>
       </c>
       <c r="N60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
+      <c r="P60" s="3">
+        <v>200</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,38 +3273,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1500</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2000</v>
       </c>
       <c r="G62" s="3">
         <v>2000</v>
       </c>
       <c r="H62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I62" s="3">
         <v>2500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,49 +3485,52 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3600</v>
-      </c>
-      <c r="E66" s="3">
-        <v>3400</v>
       </c>
       <c r="F66" s="3">
         <v>3400</v>
       </c>
       <c r="G66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1500</v>
-      </c>
-      <c r="L66" s="3">
-        <v>300</v>
       </c>
       <c r="M66" s="3">
         <v>300</v>
       </c>
       <c r="N66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
+      <c r="P66" s="3">
+        <v>200</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,38 +3771,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-100</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
       <c r="M72" s="3">
         <v>0</v>
       </c>
@@ -3641,8 +3815,8 @@
       <c r="O72" s="3">
         <v>0</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
+      <c r="P72" s="3">
+        <v>0</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,38 +3983,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E76" s="3">
         <v>37800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>38400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>38100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>38200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>37900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>37800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>36800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>39800</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
       <c r="M76" s="3">
         <v>0</v>
       </c>
@@ -3841,8 +4027,8 @@
       <c r="O76" s="3">
         <v>0</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
+      <c r="P76" s="3">
+        <v>0</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,93 +4089,99 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -3996,8 +4191,8 @@
       <c r="O81" s="3">
         <v>0</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
+      <c r="P81" s="3">
+        <v>0</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
@@ -4005,8 +4200,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,19 +4539,22 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
@@ -4349,14 +4566,14 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -4366,8 +4583,8 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
+      <c r="P89" s="3">
+        <v>0</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,16 +4772,19 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4572,11 +4802,11 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-40600</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -4586,8 +4816,8 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,20 +5058,23 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -4842,11 +5088,11 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>41300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4856,8 +5102,8 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4924,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
@@ -4939,14 +5191,14 @@
         <v>-100</v>
       </c>
       <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4956,13 +5208,16 @@
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
+      <c r="P102" s="3">
+        <v>0</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
